--- a/data/air_info/首尔-长春.xlsx
+++ b/data/air_info/首尔-长春.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C78975-EFE8-4680-83C7-4A0FC3BF7E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E7DE8-095E-4073-B059-74394CD2484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>南航经济舱Airbus A320CZ 688</t>
   </si>
   <si>
@@ -58,6 +64,10 @@
   </si>
   <si>
     <t>机票价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -408,25 +418,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -434,19 +444,19 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>0.60763888888888884</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1280</v>
